--- a/dodatok.xlsx
+++ b/dodatok.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="209">
   <si>
     <t>Зразок</t>
   </si>
@@ -436,8 +436,7 @@
     <t>В будні дні Великого посту (понеділок — п'ятниця) завжди читається повсякденне славослов'я, навіть у свято Благовіщення Пресвятої Богородиці.</t>
   </si>
   <si>
-    <t xml:space="preserve">Зразок звершення 1-го часу в будні Чотиридесятниці
-</t>
+    <t>Зразок звершення 1-го часу в будні Чотиридесятниці</t>
   </si>
   <si>
     <t>На 1-му часі — після трьох псалмів і «[font=fonts/triodion_ucs]Ґллилyіа[/font]» (тричі), у вівторок, середу і четвер стихословиться рядова кафізма. Перед нею «заход»: «[font=fonts/triodion_ucs]ГDи, поми1-луй[/font]» (тричі), «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — читається, а не співається.
@@ -570,8 +569,7 @@
     <t>Відповідно до послідування великого повечір'я молитву читає ієрей. Зазвичай на практиці її вимовляє чтець.</t>
   </si>
   <si>
-    <t xml:space="preserve">Зразок звершення послідування зображальних в середу і п'ятницю перед Литургією Передосвячених Дарів
-</t>
+    <t>Зразок звершення послідування зображальних в середу і п'ятницю перед Литургією Передосвячених Дарів</t>
   </si>
   <si>
     <t>У храмі Господському — кондак дня, кондак священномученикам. «[font=fonts/triodion_ucs]Слaва[/font]» — «[font=fonts/triodion_ucs]Со с™hми ўпок0й[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — «[font=fonts/triodion_ucs]Предстaтельство хrтіaнъ[/font]…».
@@ -665,6 +663,81 @@
   <si>
     <t xml:space="preserve">Упорядник Літургії Передосвячених Дарів, згідно Служебнику, поминається на відпусті перед поминанням всіх святих, а не перед святими храму і дня (як на повній Літургії). При звершенні Літургії Передосвячених Дарів в полієлейні свята виголошується повний відпуст свята, в якому як святі дня спочатку поминаються полієлейний святий минаючого богослужбового дня, а потім — святий наступного богослужбового дня. Деякі літургісти (Н. Д. Успенський, прот. К. Нікольський) вважають, що підставою для поминання на відпусті святого минаючого дня є наявність на вечірні з Передеосвяченою Літургією будь-яких текстів даному святому. Це відбувається тільки при полієлейних святах (на «[font=fonts/triodion_ucs]ГDи, воззвaхъ[/font]» співаються стихири полієлейному святому), на рядовій вечірні з Літургією Передосвячених Дарів на «[font=fonts/triodion_ucs]ГDи, воззвaхъ[/font]» співаються стихири святому наступного богослужбового дня, тому і імені святого дня, що минає, згідно з цією думкою, не повинно бути на відпусті.
 </t>
+  </si>
+  <si>
+    <t>Житія прп. Марії Єгипетської ч.1</t>
+  </si>
+  <si>
+    <t>Таємницю цареву пристойно зберігати, а про діла Божі сповіщати похвально» (Тов. 12: 7), – так сказав Архангел Рафаїл Товиту, коли звершилося чудесне зцілення його сліпоти. Дійсно, не зберігати царевої таємниці страшно і згубно, а замовчувати преславні діла Божі – велика втрата для душі.
+І я, – говорить святий Софроній, який написав житіє преподобної Марії Єгипетської, – боюся мовчанням утаїти Божі діла і, згадуючи, що рабу, котрий закопав у землю даний від Бога талант, загрожує нещастя (Мф. 25: 18-25), не можу не розповісти святу повість, що дійшла до мене. І нехай ніхто не подумає, – продовжує святий Софроній, – що я наважився писати неправду; коли в когось з’явиться сумнів у цій чудесній події, нехай знає: не подобає мені говорити неправду на святе. Якщо ж знайдуться такі люди, які, прочитавши це писання й будучи вражені славною подією, не повірять, то нехай буде до них милостивим Господь, тому що вони, розмірковуючи про неміч людської істоти, вважають неможливими ті чудесні діла, котрі звершуються зі святими людьми. Однак потрібно вже починати розповідь про славну подію, що відбулася в нашому роді.
+В одному палестинському монастирі в околицях Кесарії жив преподобний монах Зосима. Відданий у монастир із раннього дитинства, він подвизався в ньому до 53 років, аж доки його не збентежив помисел: "Чи знайдеться хоча б у найдальшій пустелі святий чоловік, який перевершив би мене в подвигах та молитві?".
+Лиш тільки він подумав так, йому з’явився Ангел Господній та сказав: "Ти, Зосимо, за людською мірою непогано подвизався, але серед людей нема жодного праведного (Рим. 3: 10). Щоб ти зрозумів, скільки є ще інших та вищих способів спасіння, вийди з цієї обителі, як Авраам із дому батька свого (Бут. 12: 1), і йди в монастир, розташований біля Йордану".
+Зараз же авва Зосима вийшов із монастиря і слідом за Ангелом прийшов у Йорданський монастир та оселився в ньому.
+Тут побачив він старців, які істинно просяяли в подвигах. Авва Зосима став наслідувати святих монахів у духовному житті.
+Так минуло багато часу, й наблизилася свята Чотиридесятниця. В монастирі був звичай, заради якого і привів сюди Бог преподобного Зосиму. В першу неділю Великого посту служив ігумен Божественну літургію, всі причащалися Пречистого Тіла й Крові Христових, споживали потім малу трапезу і знову збиралися в церкві.
+Сотворивши молитву та встановлене число земних поклонів, старці, попросивши один в одного прощення, брали благословення в ігумена і під спільний спів псалма "Господь – Просвічення моє світло і Спаситель мій, кого убоюся? Господь – Захисник життя мого, кого устрашуся?" (Пс. 27: 1) відчиняли монастирські ворота та йшли в пустелю.
+Кожен із них брав із собою помірну кількість їжі, хто скільки потребував, деякі ж і зовсім нічого не брали в пустелю й живилися корінцями. Монахи переходили за Йордан і розходилися якнайдалі, щоб не бачити, як хто постить і як подвизається.
+Коли закінчувався Великий піст, монахи поверталися в монастир на Вербну неділю із плодами своїх діл (Рим. 6: 21, 22), випробувавши свою совість (1 Пет. 3: 16). Й ніхто ні в кого не питав, як він трудився і як подвизався.
+Тогоріч і авва Зосима, за монастирським звичаєм, перейшов Йордан. Йому хотілося глибше зайти в пустелю, щоб зустріти когось зі святих і великих старців, які спасаються там і моляться за світ.
+Він йшов через пустелю 20 днів і одного разу, коли він співав псалми 6-го часу і творив звичайні молитви, раптом праворуч від нього немовби з’явилася тінь людського тіла. Він жахнувся, думаючи, що бачить бісівську примару, але, перехрестившись, відігнав страх і, закінчивши молитву, повернувся до тіні й побачив оголену людину, що йшла пустелею. Тіло її було чорне від сонячної спеки, а вигоріле коротке волосся побіліло, як руно агнця. Авва Зосима зрадів, тому що за ці дні не бачив жодного живої істоти, й відразу пішов до неї.
+Але як тільки нагий пустельник побачив, що йде до нього Зосима, то мерщій почав від нього втікати. Авва Зосима, забувши про свою старечу неміч і втому, пришвидшив ходу. Та незабаром він, знемігшись, зупинився біля висохлого струмка й почав слізно благати подвижника, який віддалявся: "Чого ти втікаєш від мене, грішного старця, що спасається в цій пустелі? Зачекай мене, немічного й негідного, і подай мені твою святу молитву та благословення, заради Господа, Який не гордував ніколи ніким".
+Невідомий, не обертаючись, крикнув йому: "Прости, аввo Зосимo, не можу з’явитися перед тобою: адже я жінка, й нема на мені, як бачиш, ніякого одягу, щоб прикрити тілесну наготу. Але якщо хочеш помолитися за мене, велику та окаянну грішницю, кинь мені прикритися свій плащ, тоді зможу підійти до тебе під благословення".
+"Не знала би вона мого імені, якби святістю та невідомими подвигами не здобула дару прозорливості від Господа", — подумав авва Зосима й поспішив виконати сказане йому.
+Прикрившись плащем, подвижниця повернулася до Зосими: "Чого надумав ти, аввo Зосимo, говорити зі мною, жінкою грішною та немудрою? Чого бажаєш ти в мене навчитися і, не шкодуючи сил, приклав стільки трудa?".
+Він же, схиливши коліна, просив у неї благословення. Так самісінько й вона схилилася перед ним, і довго обоє один в одного просили: "Благослови". Нарешті подвижниця сказала: "Аввo Зосимo, тобі личить благословити й помолитися, тому що ти вшанований саном пресвітерським і багато років, стоячи перед Христовим престолом, приносиш Господеві Святі Дари".
+Ці слова ще більше злякали преподобного Зосиму. Із глибоким зітханням він відповів їй: "О, мати духовна! Очевидно, що з нас двох ти більше наблизилася до Бога і вмерла для світу. Ти знаєш мене на ім’я та назвала пресвітером, ніколи раніше не бачивши. Тобі й слід благословити мене, Господа заради".
+Поступившись нарешті завзятості Зосими, преподобна сказала: "Благословенний Бог, що бажає спастися всім людям". Авва Зосима відповів "Амінь", і вони підвелися із землі. Подвижниця знову сказала старцеві: "Навіщо прийшов ти, отче, до мене, грішниці без жодної чесноти? Втім, видно, благодать Духа Святого настановила тебе послужити одну службу, потрібну моїй душі. Скажи мені спочатку, авво, як живуть нині християни, як ростуть і благоденствують святі Божі Церкви?".
+Авва Зосима відповів їй: "Вашими святими молитвами Бог дарував Церкві та нам усім цілковитий мир. Але почуй і ти благання негідного старця, мати моя, помолися, заради Бога, за весь світ і за мене, грішного, щоб не було мені безплідним це пустельне ходіння".
+Свята подвижниця сказала: "Скоріше тобі слід, авво Зосимо, маючи священний чин, за мене і за всіх молитися. На те тобі й сан дано. Втім, усе, що велиш мені, охоче виконаю як послух Істині й від чистого серця".
+Сказавши так, свята повернулася на схід і, звівши очі та піднісши руки до неба, почала пошепки молитися. Старець побачив, як вона піднялася в повітрі на лікоть від землі. Від цього дивовижного видіння Зосима впав ниць, ретельно молячись і не сміючи вимовити нічого, крім "ГDи, поми1луй!".
+Йому прийшов у душу помисел – чи не привид це вводить його в спокусу? Преподобна подвижниця, обернувшись, підвела його із землі та сказала: "Чого тебе, авва Зосима, так бентежать помисли? Не привид я. Я – жінка грішна й негідна, хоч і огороджена святим Хрещенням".
+Сказавши це, вона осінила себе хресним знаменням. Бачачи й чуючи це, старець впав зі сльозами до ніг подвижниці: "Благаю тебе Христом, Богом нашим, не затаюй від мене свого подвижницького життя, але розкажи його ціле, щоб зробити явною для всіх велич Божу. Тому що вірю Господеві Богові моєму. Ним же й ти живеш, для того й був я посланий у цю пустелю, щоб усі твої постницькі діяння зробив Бог явними для світу".
+І свята подвижниця сказала: "Стидаюся, отче, розповідати тобі про безсоромні мої діла. Тому що будеш тоді втікати від мене, закривши очі й вуха, як утікають від отруйної змії. Але все-таки скажу тобі, отче, не змовчавши ні про що з моїх гріхів, ти ж, благаю тебе, не припиняй молитися за мене, грішну, щоб знайти мені відвагу в День Суду".</t>
+  </si>
+  <si>
+    <t>Житія прп. Марії Єгипетської ч.2</t>
+  </si>
+  <si>
+    <t>Ось що розповіла пустельниця про себе:
+"Народилася я в Єгипті й ще за життя батьків, y 12 років, покинула їх і пішла в Aлександрію. Там втратила я свою цноту й віддалася нестримному і ненаситному любодіянню. Понад 17 років віддавалася я гріхові та робила все це безкоштовно. Я не брала грошей не тому, що була багата. Я жила вбого й заробляла прядінням. Думала я, що весь сенс життя полягає в угамуванні плотської похоті.
+Провадячи таке життя, я одного разу побачила безліч народу, що йшов з Лівії та Єгипту до моря, щоб пливти в Єрусалим на свято Воздвиження Святого Хреста. Захотілося й мені поплисти з ними. Але не заради Єрусалима й не заради свята, а – прости, отче, – щоби було більше з ким віддаватися розпусті. Так сіла я на корабель.
+Тепер, отче, повір мені, я сама дивуюся, як море стерпіло мою розпусту й любодіяння, як земля не розкрила своїх уст і не звела заживо в пекло мене, яка спокусила та погубила стільки душ… Але, видно, Бог бажав мого покаяння, не бажаючи смерті грішника і з довготерпінням очікуючи навернення.
+Так прибула я в Єрусалим і весь час аж до свята, як і на кораблі, займалася скверними ділами.
+Коли наступив день святого Воздвиження Чесного Хреста Господнього, я, як і раніше, ходила, вловлюючи душі юних у гріх. Побачивши, що всі дуже рано пішли в церкву, де знаходилося Животворяще Древо, я пішла разом зі всіма і ввійшла в церковний притвор. Коли настав час святого Воздвиження, я хотіла ввійти з усім народом у церкву. З великими труднощами діставшись дверей, я, окаянна, намагалася втиснутися всередину. Але заледве я ступила на поріг, як мене зупинила якась Божа сила, не даючи ввійти, і відкинула далеко від дверей, тоді як усі люди йшли безперешкодно. Я думала, що, можливо, через жіноче слабосилля не могла протиснутися в юрбі, та знову спробувала ліктями розштовхувати народ і пробиратися до дверей. Як я не намагалася – ввійти не змогла. Як тільки моя нога торкалася церковного порога, я зупинялася. Всіх приймала церква, нікому не забороняла ввійти, а мене, окаянну, не пускала. Так було три або чотири рази. Я виснажилася, і тоді відійшла та стала в кутку церковного притвору.
+Тут я відчула, що це гріхи мої не дають мені побачити Животворяще Древо, мого серця торкнулася благодать Господня, я заридала й почала в покаянні бити себе в груди. Підносячи до Господа зітхання від щирого серця, я побачила перед собою ікону Пресвятої Богородиці і звернулася до Неї з молитвою: "О, Діво, Владичице, Яка породила плоттю Бога — Слово! Знаю, що негідна я споглянути на Твою ікону. Справедливо мені, блудниці небаченій, бути відкинутою від Твоєї чистоти й бути для Тебе мерзотою, але знаю й те, що для того Бог і став людиною, щоб прикликати грішників до покаяння. Допоможи мені, Пречиста, щоби було мені дозволено ввійти в церкву. Не заборони мені бачити Древо, на якому плоттю був розіп’ятий Господь, Який пролив Свою невинну Кров і за мене, грішну, за відкуплення моє від гріха. Повели, Владичице, нехай відкриються й мені двері святого поклоніння Хресного. Будь мені доблесною Заступницею перед Народженим від Тебе. Обіцяю Тобі з цього часу вже не опоганювати себе більш ніякою плотською скверною, але, як тільки побачу Древо Хреста Сина Твого, відречуся від світу і негайно піду туди, куди Ти як Заступниця настановиш мене".
+І коли я так помолилася, відчула раптом, що молитва моя почута. У розчуленні, надіючись на Милосердну Богородицю, я знову приєдналася до тих, які входили у храм, і ніхто не відтіснив мене й не заборонив мені увійти. Я йшла зі страхом та трепетом, поки не дійшла до дверей та сподобилася бачити Животворящий Хрест Господній.
+Так пізнала я таємниці Божі й те, що Бог готовий прийняти тих, хто кається. Впала я на землю, помолилася, поцілувала святиню і вийшла з храму, поспішаючи знову стати перед моєю Заступницею, де дала я обітницю. Прихиливши коліна перед іконою, так молилася я перед нею:
+"О, Благолюбива Владичице наша, Богородице! Ти не погордувала молитвою моєю негідною. Слaва Богові, Який приймає Тобою покаяння грішників. Настав тепер мені час виконати обіцянку, в якій Ти була Поручителькою. Нині, Владичице, направ мене на шлях покаяння".
+І от, не скінчивши ще своєї молитви, чую голос, який мовби говорить здалеку: "Коли перейдеш за Йордан, то знайдеш блаженний спокій".
+Я негайно увірувала, що цей голос був заради мене, та, плачучи, вигукнула до Богородиці: " Владичице, не покинь мене, грішницю скверну, але допоможи мені", – і одразу ж вийшла із церковного притвору й пішла геть. Одна людина дала мені три мідні монети. За них я купила собі три хлібини та у продавця довідалася шлях на Йордан.
+Коли заходило сонце, я дійшла до церкви святого Іоанна Хрестителя біля Йордану. Вклонившись насамперед у церкві, я негайно спустилася до Йордану й омила його святою водою обличчя та руки. Потім я причастилася в храмі святого Іоанна Предтечі Пречистих і Животворящих Таїн Христових, з’їла половину однієї зі своїх хлібин, запила святою йорданською водою і проспала цю ніч на землі в храмі. Вранці ж, знайшовши неподалік невеликий човен, я переправилася в ньому через річку на другий берег і знову гаряче молилася Наставниці моїй, щоб Вона направила мене, як Їй Самій буде угодно. Відразу ж після цього я й прийшла в цю пустелю."
+Авва Зосима запитав у преподобної: "Скільки ж років, мати моя, минуло відтоді, як ти оселилася в цій пустелі?" – "Думаю, – відповіла вона, 47 років пройшло, як вийшла я зі Святого Міста".
+Авва Зосима знову запитав: "Яку маєш чи яку знаходиш ти собі їжу тут, мати моя?". І вона відповіла: "Було в мене дві з половиною хлібини, коли я перейшла Йордан, помалу вони засохли і скам’яніли, і, споживаючи потрохи, багато років я харчувалася ними".
+Знову запитав авва Зосима: "Невже без хвороб була ти стільки років? І не приймала жодних раптових спокус?" – "Повір мені, авво Зосимо, – відповідала преподобна, – 17 років провела я в цій пустелі, немов з лютими звірами борючись зі своїми помислами… Коли я починала споживати їжу, відразу ж приходив помисел про м’ясо та рибу, до яких я звикла в Єгипті. Хотілося мені й вина, тому що я багато пила його, коли була у світі. Тут же, не маючи часто простої води та їжі, я люто страждала від спраги й голоду. Терпіла я й сильніші нещастя: мене опановувало бажання любодійних пісень, вони немовби причувалися мені, бентежачи серце і слух. Плачучи й б’ючи себе в груди, я згадувала тоді обітниці, які давала, йдучи в пустелю, перед іконою Святої Богородиці, Поручительки моєї, і плакала, благаючи відігнати помисли, що мучили душу. Коли в міру молитви й плачу звершувалося покаяння, я бачила звідусіль осяйне Світло, й тоді замість бурі мене огортала велика тиша.
+Блудні ж помисли, прости, авво, як буду сповідати тобі? Пристрасний вогонь розпалювався всередині мого серця й цілу обпалював мене, збуджуючи похіть. Я ж із появою окаянних помислів падала на землю і немов бачила, що переді мною стоїть Сама Пресвята Поручителька й судить мене, що переступила дану обіцянку. Так не вставала я, лежачи ниць день і ніч на землі, поки знову не звершувалося покаяння і мене не оточувало те ж блаженне Світло, яке відганяло злі замішання та думки.
+Так жила я в цій пустелі перші 17 років. Темрява за темрявою, лихо за напастю обступали мене, грішну. Але відтоді й донині Богородиця, Помічниця моя, у всьому скеровує мене".
+Авва Зосима знову запитав: "Невже ти не потребувала ані їжі, ані одягу?".
+Вона ж відповіла: "Хліб мій закінчився, як я казала, за ці 17 років. Після того я почала харчуватися корінням і тим, що могла знайти в пустелі. Одяг, що був на мені, коли перейшла Йордан, давно роздерся й зотлів, і мені багато потім довелося терпіти й горювати і від спеки, яка мене обпалювала, і від зими, коли я дрижала від холоду. Скільки разів я падала на землю як мертва. Скільки разів у безмірному борінні перебувала із різними напастями, лихами та спокусами. Але відтоді й до нинішнього дня сила Божа невідомо й різноманітно берегла мою грішну душу і смиренне тіло. Живилася і вкривалася я словом Божим, яке все втримує (Втор. 8: 3), тому що чоловік житиме не самим хлібом, а кожним словом, що виходить з уст Божих (Мф. 4: 4; Лк. 4: 4), і ті, що не мають схованки, туляться до скелі (Іов 24: 8), якщо скинули стару людину з її ділами (Кол. 3: 9). Коли згадувала, від якого зла і яких гріхів визволив мене Господь, у тому знаходила я їжу невичерпну".
+Коли авва Зосима почув, що й зі Святого Письма слова говорить на пам’ять свята подвижниця – із книг Мойсея та Іова і з псалмів Давидових, – тоді запитав преподобну: "Де, мати моя, навчилася ти псалмів та інших Книг?".
+Вона посміхнулася, вислухавши це питання, і відповідала так: "Повір мені, чоловіче Божий, жодної не бачила я людини, крім тебе, відтоді, як перейшла Йордан. Із книг і раніше ніколи не вчилася, ні співу церковного не чула, ні Божественного читання. Хіба що Саме Слово Боже, живе і всетворче, навчає людину всякої мудрості (Кол. 3: 16). Утім, доволі, вже все життя моє я розповіла тобі, але із чого починала, тим і закінчую: благаю тебе втіленням Бога Слова – молися, святий авво, за мене, велику грішницю.
+І ще благаю тебе Спасителем, Господом нашим Іісусом Христом – все те, що чув ти від мене, не кажи нікому доти, доки Бог не візьме мене вiд землі. І зроби те, про що я зараз скажу тобі. Наступного року, у Великий піст, не ходи за Йордан, як велить ваш чернечий звичай".
+Знову здивувався авва Зосима, що й чин їхній монастирський відомий святій подвижниці, хоча він перед нею не промовив про це жодного слова.
+"Перебудь же, авво, — продовжувала преподобна, — у монастирі. Втім, якщо й захочеш вийти з монастиря, ти не зможеш… А коли наступить святий Великий Четвер Тайної Вечері Господньої, вклади у святу Чашу Животворящого Тіла й Крові Христа, Бога нашого, і принеси мені. Чекай же мене на тому боці Йордану, скраю пустелі, щоб я, прийшовши, причастилася Святих Таїн. А авві Іоанну, ігумену вашої обителі, так скажи: пильнуй себе самого та навчання; дотримуйся цього, бо, робивши це, спасеш себе самого й тих, що слухають тебе (1 Тим. 4: 16). Утім, не хочу, щоб ти тепер сказав йому це, але коли вкаже Господь".
+Сказавши так і попросивши ще раз молитов, преподобна повернулася й пішла в глибину пустелі.
+Цілий рік старець Зосима пробув у мовчанці, нікому не сміючи відкрити явлене йому Господом, і належно молився, щоб Господь сподобив його ще раз побачити святу подвижницю.
+Коли ж знову наступила перша седмиця святого Великого посту, преподобний Зосима через хворобу змушений був залишитися в монастирі. Тоді він згадав пророчі слова преподобної про те, що не зможе вийти з монастиря. Через декілька днів преподобний Зосима видужав, але все-таки залишився до Страсної седмиці в монастирі.
+Наблизився день спомину Тайної Вечері. Тоді авва Зосима виконав наказане йому – пізнього вечора вийшов iз монастиря до Йордану й сів на березі в очікуванні. Свята зволікала, і авва Зосима благав Бога, щоб Він не позбавив його зустрічі з подвижницею.
+Нарешті преподобна прийшла і стала по той бік річки. Радіючи, преподобний Зосима підвівся і славив Бога. Йому спала думка: як вона зможе без човна перебратися через Йордан? Але преподобна, хресним знаменням перехрестивши Йордан, швидко пішла по воді. Коли ж старець хотів вклонитися їй, вона заборонила йому, крикнувши iз середини річки: "Що робиш, аввo? Адже ти – ієрей, носій великих Таїн Божих".
+Перейшовши річку, преподобна сказала авві Зосимі: "Благослови, отче". Він же відповів їй із трепетом, жахнувшись від чудесного видіння: "Воістину правдивий Бог, Який обіцяв уподібнити Собі всіх, що очищаються, наскільки це є можливо для смертних. Слaва Тобі, Христе Боже наш, що показав мені через святу рабу Свою, як далеко відстаю від міри досконалості".
+Після цього преподобна просила його прочитати "Вірую" та "Отче нaш". По закінченні молитви вона, причастившись Святих Страшних Христових Таїн, простягла руки до неба й зі сльозами і трепетом промовила молитву святого Симеона: "Нині відпускаєш рабу Твою, Владико, за словом Твоїм з миром, бо бачили очі мої спасіння Твоє".
+Потім знову преподобна звернулася до старця і сказала: "Прости, аввo, виконай ще одне моє бажання. Йди тепер у свій монастир, а наступного року приходь до того висохлого потоку, де ми перший раз розмовляли з тобою". "Якби міг я, – відповів авва Зосима, – постійно за тобою ходив би, щоби бачити твою святість!" Преподобна знову просила старця: "Молися, заради Господа, молися за мене і згадуй моє окаянство". І, хресним знаменням осінивши Йордан, вона, як і перед тим, пройшла по водах та зникла в темряві пустелі. А старець Зосима повернувся в монастир у духовній радості та трепеті, в одному картаючи себе, що не запитав імені преподобної. Але він сподівався наступного року довідатися нарешті її ім’я.
+Минув рік, і авва Зосима знову вирушив у пустелю. Молячись, він дійшов до висохлого потоку, на східному боці якого побачив святу подвижницю. Вона лежала мертва, зі складеними, як і належить, на грудях руками, обличчям звернена до сходу. Авва Зосима омив сльозами її стопи, не відважуючись торкатися тіла, довго плакав над покійною подвижницею і почав співати псалми, що подобають після смерті праведних, і читати похоронні молитви. Але він сумнівався, чи угодно буде преподобній, щоб він поховав її. Тільки він це подумав, як побачив, що в голові в неї написано: "Поховай, аввo Зосимo, на цьому місці тіло смиренної Марії. Моли Господа за мене, що переставилася в перший день місяця квітня, в саму ніч спасительних страждань Христових, після причастя Божественної Тайної Вечері".
+Прочитавши цей напис, авва Зосима здивувався спочатку, хто міг написати це, тому що сама подвижниця не знала грамоти. Але він був радий нарешті довідатися її ім’я. Зрозумів авва Зосима, що преподобна Марія, причастившись Святих Таїн на Йордані з його рук, в одну мить пройшла свій далекий пустельний шлях, яким він, Зосима, прямував 20 днів, й одразу відійшла до Господа.
+Прославивши Бога та омочивши сльозами землю й тіло преподобної Марії, авва Зосима сказав собі: "Пора вже тобі, старче Зосимо, виконати звелене тобі. Але як зможеш ти, окаянний, викопати могилу, нічого не маючи в руках?". Сказавши це, він побачив неподалік у пустелі повалене дерево, що лежало, взяв його й почав копати. Та занадто суха була земля: скільки не копав він, обливаючись потом, нічого не міг зробити. Випроставшись, авва Зосима побачив біля тіла преподобної Марії величезного лева, що лизав її стопи. Старця опанував страх, але він осінив себе хресним знаменням, віруючи, що залишиться неушкодженим молитвами святої подвижниці. Тоді лев почав лащитися до старця, і авва Зосима, запалюючись духом, наказав левові викопати могилу, щоб віддати землі тіло святої Марії. За його словом лев лапами викопав рів, у якому й було поховане тіло преподобної. Виконавши заповідане, кожен пішов своєю дорогою: лев – у пустелю, а авва Зосима – в монастир, благословляючи і хвалячи Христа, Бога нашого.
+Прийшовши в обитель, авва Зосима розповів монахам та ігуменові, що бачив і чув від преподобної Марії. Усі дивувалися, слухаючи про велич Божу, й зі страхом, вірою та любов’ю постановили творити пам’ять преподобної Марії та вшановувати день її смерті. Авва Іоанн, ігумен обителі, за словом преподобної, з Божою допомогою виправив у обителі те, що належало. Авва Зосима, проживши ще богоугодно в тому ж монастирі й майже доживши до 100 років, закінчив тут своє тимчасове життя, перейшовши в життя вічне.
+Так передали нам чудову повість про життя преподобної Марії Єгипетської древні подвижники славної обителі святого всехвального Предтечі Господнього Іоанна, розташованої на Йордані. Повість ця спочатку не була ними записана, але передавалася благоговійно святими старцями від наставників до учнів.
+"Я ж, – каже святитель Софроній, архієпископ Єрусалимський, перший, хто описав її життя, – що прийняв своєю чергою від святих отців, усе записав".
+Бог, Який творить великі чудеса й великими дарами воздає всім, хто з вірою до Нього звертається, так винагородить і тих, хто читає, слухає, хто передав нам цю повість, і сподобить нас благої участі з блаженною Марією Єгипетською та з усіма святими, які богомислям і трудами своїми вгодили Богові протягом століть. Віддамо ж і ми славу Богові Цареві вічному, щоб і нас сподобив у День Судний милості Христа Іісуса, Господа нашого, Йому ж належить всяка слaва, честь, і держава, і поклін з Отцем, і з Пресвятим і Животворящим Духом, нині і присно і навіки, амінь.</t>
   </si>
   <si>
     <t>Послідування Неділі Православ'я</t>
@@ -707,7 +780,7 @@
 «[font=fonts/triodion_ucs]Ўстр0ивый мjръ сeй въ слaву твою2, сотвори2, да и3 проти1вzщіисz твоемY сл0ву њбратsтсz, и3 вкyпэ со всёми вёрными, и4стинною вёрою и3 бlгочeстіемъ тебE бGа нaшего прослaвzтъ, м0лимъ ти сz, всеси1льный тв0рче, ўслhши и3 поми1луй[/font]».
 «[font=fonts/triodion_ucs]Дaвый зaповэдь твою2 нaмъ, є4же люби1ти тебE бGа нaшего, и3 бли1жнzго своего2, сотвори2, да нє1нависти, вражды6, њби6ды, и3 прHчаz беззакHніz прекратsтсz, и4стиннаz же люб0вь да цaртвуетъ въ сердцaхъ нaшихъ, м0лимъ ти сz, сп7си1телю нaшъ, ўслhши и3 млcтивнw поми1луй[/font]».
 Ієрей — возглас: «[font=fonts/triodion_ucs]Ўслhши ны2, б9е сп7си1телю нaшъ[/font]…». Хор: «[font=fonts/triodion_ucs]Ґми1нь[/font]». Диякон: «[font=fonts/triodion_ucs]ГDу пом0лимсz[/font]». Хор: «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]».
-Ієрей читає молитву.</t>
+[ref=world][color=0000ff] Ієрей читає молитву. [/color][/ref]</t>
   </si>
   <si>
     <t>[font=fonts/triodion_ucs]Всевhшній б9е, вLко и3 содётелю всеS твaри, наполнszй вс‰ вели1чествомъ твои1мъ, и3 содержaй си1лою твоeю! ТебЁ вседарови1тому гDу нaшему мы2 недост0йніи бlгодарeніе прин0симъ, ћкw не tвращaешисz нaсъ беззак0ній рaди нaшихъ, но пaче предварsеши ны2 щедр0тами твои1ми. Ты2 ко и3збавлeнію нaшему послaлъ є3си2 є3динор0днаго твоего2 сн7а, и3 бlговэсти1лъ безмёрное твоE къ р0ду человёческому снизхождeніе: ћкw хотёніемъ х0щеши, и3 њжидaеши, є4же њбрати1тисz нaмъ къ тебЁ, и3 сп7сє1нымъ бhти. Ты2 снизходS къ нeмощи нaшегw є3стествA, ўкрэплsеши нaсъ всеси1льною с™aгw твоегw2 д¦а бlгодaтію, ўтэшaеши сп7си1тельною вёрою и3 совершeнною надeждою вёчныхъ бл†гъ, и3 руков0дствуz и3збрaнныхъ твои1хъ въ г0рній сіHнъ, соблюдaеши ћкw зёницу џка. И#сповёдуемъ гDи, вели1кое твоE и3 безприклaдное чlвэколю1біе и3 млcрдіе. Но ви1дzще мн0гихъ поползновє1ніz, прилёжнw тS всебlгjй гDи м0лимъ: при1зри на цRковь твою2, и3 ви1ждь, ћкw твоE сп7си1тельное бlговёстіе ѓще и3 рaдостнw пріsхомъ, но тeрніе суеты2 и3 страстeй твори1тъ џное въ нёкіихъ малопл0дно, въ нёкіихъ же и3 безпл0дно, и3 по ўмножeнію беззак0ній џвіи є3ресьми2, џвіи раск0ломъ проти1вzщесz є3ђльской твоeй и4стинэ, tступaютъ t достоsніz твоегw2, tрэвaютъ твою2 бlгодaть, и3 повергaютъ себE судY твоегw2 прес™aгw сл0ва. Премлcрдый и3 всеси1льный, не до концA гнёваzйсz гDи! бyди млcтивъ, м0литъ тS твоS цRковь, представлsющи тебЁ начaльника и3 соверши1телz сп7сeніz нaшегw ї}са хrтA: бyди млcтивъ нaмъ, ўкрэпи2 нaсъ въ правовёріи си1лою твоeю, заблуждaющымъ же просвэти2 раз{мныz џчи свётомъ твои1мъ б9eственнымъ, да ўразумёютъ твою2 и4стину: ўмzгчи2 и4хъ њжесточeніе, и3 tвeрзи слyхъ, да познaютъ глaсъ тв0й, и3 њбратsтсz къ тебЁ сп7си1телю нaшему. И#спрaви гDи и3нhхъ развращeніе, и3 жи1знь несоглaсную хrтіaнскому бlгочeстію: сотвори2, да вси2 свsтw и3 непор0чнw поживeмъ: и3 тaкw сп7си1тельнаz вёра ўкорени1тсz, и3 плодон0сна въ сердцaхъ нaшихъ пребyдетъ. Не tврати2 лицA твоегw2 t нaсъ гDи, воздaждь нaмъ рaдость сп7сeніz твоегw2. Подaждь гDи, и3 пaстырємъ цRкве твоеS с™yю рeвность, и3 њ сп7сeніи и3 њбращeніи заблуждaющихъ попечeніе и4хъ дyхомъ є3ђльскимъ раствори2: да тоб0ю вси2 руководи1ми, дости1гнемъ, и3дёже совершeніе вёры, и3сполнeніе надeжды и3 и4стиннаz люб0вь, и3 тaмw съ ли6ки чcтёйшихъ нбcныхъ си1лъ прослaвимъ тебE гDа нaшего, nц7A, и3 сн7а, и3 с™aго д¦а, во вёки вэкHвъ[/font].</t>
@@ -952,6 +1025,106 @@
 На 3-му часі — Ін., зач. 35–38 (9, 39–10, 42).
 На 6-му часі — Ін., зач. 39–41 (11, 1–12, 18).
 На 9-му часі — Ін., зач. 42–46 (12, 19–13, 32).</t>
+  </si>
+  <si>
+    <t>Зразок звершення алілуйної служби</t>
+  </si>
+  <si>
+    <t>[b]Б. На вечірні[/b] кафізма 9-а.
+«[font=fonts/triodion_ucs]ГDи, воззвaхъ[/font]» співається за гласом Богородичних стихир Мінеї.
+На «[font=fonts/triodion_ucs]ГDи, воззвaхъ[/font]» — стихири на 6: [ref=world][color=0000ff] Богородиці [/color][/ref], глас 4-й — 3, і священномученику, глас той же — 3. «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — Хрестобогородичен Мінеї, глас той же.</t>
+  </si>
+  <si>
+    <t>Спів Богородичних стихир Мінеї є невід'ємною приналежністю алілуйних служб періода малих постів. Якщо Богородичні стихири в рядовій службі Мінеї відсутні, вони беруться (як правило, по гласу стихир рядового святого) з інших служб Мінеї (пор.: Мінея, 22 травня). При звершенні алілуйної служби двом малим святим, у кожного з яких є свої стихири на «[font=fonts/triodion_ucs]ГDи, воззвaхъ[/font]», допустимі наступні варіанти: 1) спів на «[font=fonts/triodion_ucs]ГDи, воззвaхъ[/font]» стихир обох святих на 6 (при цьому Богородичні стихири не співаються); 2) спів на «[font=fonts/triodion_ucs]ГDи, воззвaхъ[/font]» стихир Богородиці (взятих з іншої служби Мінеї) на 3 і стихир першого святого на 3 (стихири другого святого в такому випадку переносяться на хвалитні утрені та співаються на 4, з повторенням першої стихири).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Входу немає. «[font=fonts/triodion_ucs]Свёте ти1хій[/font]». В неділю вечора співається прокімен дня (на інших алілуйних вечірнях співається «[font=fonts/triodion_ucs]Ґллилyіа[/font]», на глас 6-й, зі стихами з Часослова; напередодні першого дня Різдв'яного посту — прокімен дня). «[font=fonts/triodion_ucs]Спод0би, гDи[/font]» і єктенія просительна.
+На стиховні стихири Октоїха рядового гласу (в даному випадку 8-го). «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — Хрестобогородичен Октоїха, глас той же.
+Після Трисвятого — тропарі, глас 4-й; «[font=fonts/triodion_ucs]Бцdе дв7о[/font]…» ([ref=world][color=0000ff] поклон [/color][/ref]). «[font=fonts/triodion_ucs]Слaва[/font]» — «[font=fonts/triodion_ucs]Кrти1телю хrт0въ[/font]…» (поклон), «[font=fonts/triodion_ucs]И# нhнэ[/font]» — «[font=fonts/triodion_ucs]Моли1те за ны2[/font]…» (поклон), «[font=fonts/triodion_ucs]Под8 твоE бlгоутр0біе[/font]…» (без поклону). Чтець: «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (40), «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]», «[font=fonts/triodion_ucs]ЧCтнёйшую херув‡мъ[/font]…», «[font=fonts/triodion_ucs]И$менемъ гDнимъ бlгослови2, џтче[/font]». Ієрей: «[font=fonts/triodion_ucs]Сhй бlгословeнъ[/font]…». Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]». «[font=fonts/triodion_ucs]Нбcный цRю2[/font]…».
+Ієрей — молитву прп. Єфрема Сиріна (в Неділю ввечері з 3-ма великими поклонами, в інші дні — 16): «[font=fonts/triodion_ucs]ГDи и3 вLко[/font]…» (з розділенням на три частини та із трьома великими поклонами після кожної), потім 12 малих поклонів з молитвою: «[font=fonts/triodion_ucs]Б9е, њчи1сти мS грёшнаго[/font]» і знову один великий поклон в кінці молитви: «[font=fonts/triodion_ucs]ГDи и3 вLко[/font]…» (без розділення на частини).
+Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]», Трисвяте по «[font=fonts/triodion_ucs]Џ§е нaшъ[/font]» (Кінцеве Трисвяте не читається тільки в Неділю вечора). Ієрей — возглас. Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]», «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (12). Ієрей: «[font=fonts/triodion_ucs]Слaва тебЁ хrтE б9е[/font]…». Хор: «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]», «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (тричі), «[font=fonts/triodion_ucs]Бlгослови2[/font]». Ієрей виголошує відпуст.
+У всі седмичні дні ввечері служиться мале повечір'я. Порядок читання тропарів і кондаків наступний:
+У понеділок, вівторок та четвер:
+У храмі Господському і Богородиці — тропар храму, тропар дня (у четвер — два), тропарі малого повечір'я: «[font=fonts/triodion_ucs]Б9е nтє1цъ нaшихъ[/font]…», «[font=fonts/triodion_ucs]И%же во всeмъ мjрэ[/font]…». «[font=fonts/triodion_ucs]Слaва[/font]» — «[font=fonts/triodion_ucs]Со с™hми ўпок0й[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — «[font=fonts/triodion_ucs]Мlтвами, гDи, всёхъ с™hхъ[/font]…».
+У храмі святого — тропар дня (у четвер — два), тропар храму, тропарі малого повечір'я (див. вище).
+В середу і п'ятницю:
+У храмі Господському — тропар дня, тропарі малого повечір'я: «[font=fonts/triodion_ucs]Б9е nтє1цъ нaшихъ[/font]…», «[font=fonts/triodion_ucs]И%же во всeмъ мjрэ[/font]…». «[font=fonts/triodion_ucs]Слaва[/font]» — «[font=fonts/triodion_ucs]Со с™hми ўпок0й[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — «[font=fonts/triodion_ucs]Мlтвами, гDи, всёхъ с™hхъ[/font]…».
+У храмі Богородиці і святого — тропар дня, тропар храму, тропарі малого повечір'я (див. вище).
+[b]Примітка.[/b] [i]В понеділок не слід читати тропар храму святих сил безплотних, у вівторок — храму Предтечі, а в четвер — тропар храму апостольського чи свт. Миколая, тому що вони заміняються тропарями дня.[/i]
+Після возгласу: «[font=fonts/triodion_ucs]Б9е, ўщeдри[/font]…» молитва: «[font=fonts/triodion_ucs]ГDи и3 вLко[/font]…» (з 16-ма поклонами). Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]», Трисвяте по «[font=fonts/triodion_ucs]Џ§е нaшъ[/font]». Ієрей — возглас. Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]», «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (12). І молитви: «[font=fonts/triodion_ucs]Несквeрнаz, неблaзнаz[/font]…», «[font=fonts/triodion_ucs]И# дaждь нaмъ вLко[/font]…», та інші. Ієрей: «[font=fonts/triodion_ucs]Слaва тебЁ хrтE б9е[/font]…». Хор: «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]», «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (тричі), «[font=fonts/triodion_ucs]Бlгослови2[/font]». Ієрей читає молитву відпусту: «[font=fonts/triodion_ucs]ВLко многомлcтиве[/font]…». (як у Великий піст).
+Після молитви, ієрей звершує поклон, кажучи: «[font=fonts/triodion_ucs]Бlгослови1те nтцы2 с™jи[/font]…». Ті, хто моляться, відповідають: «[font=fonts/triodion_ucs]БGъ прости1тъ ти2 џтче с™hй[/font]» (або «[font=fonts/triodion_ucs]БGъ прости1тъ ти2 џтче с™hй, помоли1сz њ нaсъ грёшныхъ[/font]»). Ієрей, звернувшись до вівтаря, виголошує прохання єктенії: «[font=fonts/triodion_ucs]Пом0лимсz њ господи1нэ[/font]…», та ін. Хор: «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (тихо, на одній висоті, кілька разів). Ієрей: «[font=fonts/triodion_ucs]Рцeмъ и3 њ себЁ самёхъ[/font]», хор: «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (тричі). Ієрей: «[font=fonts/triodion_ucs]Мlтвами с™hхъ nтє1цъ нaшихъ[/font]…». Хор: «[font=fonts/triodion_ucs]Ґми1нь[/font]».
+Звершується повсякденна полуношниця з молитвою прп. Єфрема Сиріна: «[font=fonts/triodion_ucs]ГDи и3 вLко[/font]…» (16 поклонів).
+На утрені, після початкового возгласу «[font=fonts/triodion_ucs]Бlгословeнъ бGъ нaшъ[/font]…», Трисвяте по «[font=fonts/triodion_ucs]Џ§е нaшъ[/font]», «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (12). «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]», «[font=fonts/triodion_ucs]Пріиди1те, поклони1мсz[/font]…» і псалми 19-й і 20-й (кадіння всього храму). Шестипсалміє, велика єктенія, і співаємо «[font=fonts/triodion_ucs]Ґллилyіа[/font]» на глас Октоїха, і Троїчні гласу (як у Великий піст).
+</t>
+  </si>
+  <si>
+    <t>Відповідно до церковної практики земні поклони ієрей здійснює на амвоні перед Царськими вратами.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кафізми 10-а і 11-а. Після кафізм єктеній немає, а одразу сідальні Октоїха з мученичним і Хрестобогородичними їх (якщо служба святому не має кондака, мученичен читається після 6-ї пісні канону).
+50-й псалом.
+Канони: Октоїха 1-й з ірмосом (ірмос один раз) на 6, 2-й на 4, і священномученику на 4.
+Біблійні пісні: «[font=fonts/triodion_ucs]ГDеви поeмъ[/font]…».
+Катавасія після 3-ї, 6-ї, 8-ї і 9-ї пісень — ірмоси канону Мінеї.
+Після 3-ї пісні — сідален священномученику, глас 4-й. «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — Хрестобогородичен Мінеї, глас той же.
+Після 6-ї пісні — кондак священномученику, глас 4-й.
+[b]Примітка.[/b] [i]Якщо в службі Мінеї у святого є кондак, то він читається після 6-ї пісні канону, а якщо кондака немає, то на його місці після 6-ї пісні канона читається мученичен Октоїха (із сідальнів після 2-го стихослов'ї).[/i]
+На 9-й пісні співаємо «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]».
+Після 9-ї пісні — «[font=fonts/triodion_ucs]Дост0йно є4сть[/font]». Єктенія мала. Світилен Троїчен рядового гласу (в даному випадку 8-го)
+Після світильна чтець — хвалитні псалми: «[font=fonts/triodion_ucs]Хвали1те гDа съ нб7съ[/font]…» та інші стихи як [ref=world][color=0000ff] зазвичай [/color][/ref]. «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]», «[font=fonts/triodion_ucs]ТебЁ слaва подобaетъ[/font]…», «[font=fonts/triodion_ucs]Слaва тебЁ показaвшему нaмъ свётъ[/font]». Читається повсякденне славослов'я. Просительна єктенія і молитва головопреклоніння.
+Стихири на стиховні Октоїха рядового гласу (в даному випадку 8-го). «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — Хрестобогородичен Октоїха, глас той же.
+Чтець: «[font=fonts/triodion_ucs]Бlго є4сть[/font]…» (один раз). Трисвяте по «[font=fonts/triodion_ucs]Џ§е нaшъ[/font]». Після возгласу чтець — тропар: «[font=fonts/triodion_ucs]Въ хрaмэ стоsще[/font]…», «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (40). «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]…». «[font=fonts/triodion_ucs]И$менемъ гDнимъ[/font]…». Ієрей перед Царськими вратами: «[font=fonts/triodion_ucs]Сhй бlгословeнъ[/font]…». Чтець: «[font=fonts/triodion_ucs]Нбcный цRю2[/font]…». Ієрей — молитву прп. Єфрема Сиріна (з 16 поклонами). Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]», і без відпусту утрені читає 1-й час.
+До часів, за Уставом, приєднуються міжчасся (на відміну від Великого посту, де замість них читаються кафізми).
+Час 1-й. На часах стихослов'я кафізми немає. Після прочитання звичайних псалмів ієрей або чтець читає тропар: «[font=fonts/triodion_ucs]Заyтра ўслhши глaсъ м0й[/font]…». Чтець (а не хор) повторює цей тропар просто, без співу, ієрей — стих: «[font=fonts/triodion_ucs]Глаг0лы мо‰ внуши2[/font]…», чтець: «[font=fonts/triodion_ucs]Заyтра ўслhши[/font]…»; ієрей — стих: «[font=fonts/triodion_ucs]Ћкw къ тебЁ[/font]…»; чтець: «[font=fonts/triodion_ucs]Заyтра ўслhши[/font]…»; ієрей: «[font=fonts/triodion_ucs]Слaва[/font]»; чтець: «[font=fonts/triodion_ucs]И# нhнэ[/font]» — «[font=fonts/triodion_ucs]Чт0 тz наречeмъ[/font]…», «[font=fonts/triodion_ucs]Стwпы2 мо‰ напрaви[/font]…», «[font=fonts/triodion_ucs]Да и3сп0лнzтсz ўстA[/font]…» (читаються без повторів), Трисвяте по «[font=fonts/triodion_ucs]Џ§е нaшъ[/font]». Ієрей — возглас. Чтець — Богородичен дня (в понеділок, вівторок і четвер — «[font=fonts/triodion_ucs]Преслaвную б9ію м™рь[/font]…»; в середу і п'ятницю — «[font=fonts/triodion_ucs]Ск0рw предвари[/font]…») Після: «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]» і возгласа «[font=fonts/triodion_ucs]Б9е, ўщeдри[/font]…» молитва прп. Єфрема Сиріна (16 поклонів). Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]», Трисвяте по «[font=fonts/triodion_ucs]Џ§е нaшъ[/font]». Ієрей — возглас. Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]», «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (12). І молитва: «[font=fonts/triodion_ucs]ХrтE свёте и4стинный[/font]…». Й одразу міжчасся 1-го часу.
+Міжчасся 1-го часу (див. Слідуваний Псалтир): «[font=fonts/triodion_ucs]Пріиди1те, поклони1мсz[/font]…» (тричі) й звичайні псалми. Після прочитання трьох псалмів чтець: «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]». Трисвяте по «[font=fonts/triodion_ucs]Џ§е нaшъ[/font]». Ієрей — возглас. Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]», тропар: «[font=fonts/triodion_ucs]Поми1луй нaсъ гDи[/font]…», «[font=fonts/triodion_ucs]Слaва[/font]» — інший тропар: «[font=fonts/triodion_ucs]ГDи, поми1луй нaсъ[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — Богородичен: «[font=fonts/triodion_ucs]Млcрдіz двє1ри[/font]…». «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (40), «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]», «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]…», «[font=fonts/triodion_ucs]И$менемъ гDнимъ[/font]…». Ієрей — возглас: «[font=fonts/triodion_ucs]Мlтвами с™hхъ nтє1цъ[/font]…», і молитва прп. Єфрема Сиріна (з 3 поклонами). Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]». Дві молитви: «[font=fonts/triodion_ucs]Б9е вёчный, безначaльный[/font]…», «[font=fonts/triodion_ucs]Посылazй свётъ[/font]…». Ієрей: «[font=fonts/triodion_ucs]Слaва тебЁ, хrтE б9е[/font]…». Хор: «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]», «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (тричі); «[font=fonts/triodion_ucs]Бlгослови2[/font]». Ієрей читає відпуст. Співається многоліття. Співається стихира храму, і під час співу стихири відбувається вихід в притвор для заупокійної літії.
+Час 3-й. Ієрей: «[font=fonts/triodion_ucs]Бlгословeнъ бGъ нaшъ[/font]…». Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]». «[font=fonts/triodion_ucs]Слaва тебЁ б9е нaшъ[/font]…» та інше послідування 3-го часа, як зазвичай. Після трьох псалмів тропар: «[font=fonts/triodion_ucs]ГDи, и4же прес™aго твоего2 д¦а[/font]…» зі стихами (так, як на 1-му часі). Після «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]» і возгласа: «[font=fonts/triodion_ucs]Б9е, ўщeдри[/font]…» молитва прп. Єфрема Сиріна з 16 поклонами. Чтець — молитву: «[font=fonts/triodion_ucs]ВLко б9е[/font]…».
+Міжчасся 3-го часу. «[font=fonts/triodion_ucs]Пріиди1те, поклони1мсz[/font]…» (тричі) й звичайні псалми. Після прочитання трьох псалмів чтець: «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]». Трисвяте по «[font=fonts/triodion_ucs]Џ§е нaшъ[/font]». Ієрей — возглас. Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]», тропар: «[font=fonts/triodion_ucs]Б9е nтє1цъ нaшихъ[/font]…», «[font=fonts/triodion_ucs]Слaва[/font]» — інший тропар: «[font=fonts/triodion_ucs]М§ницы твои2, гDи[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — Богородичен: «[font=fonts/triodion_ucs]СтэнA неwбори1маz[/font]…». «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (40), «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]», «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]…», «[font=fonts/triodion_ucs]И$менемъ гDнимъ[/font]…». Ієрей — возглас: «[font=fonts/triodion_ucs]Мlтвами с™hхъ nтє1цъ[/font]…», і молитва прп. Єфрема Сиріна (з 3 поклонами). Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]». Молитва: «[font=fonts/triodion_ucs]ГDи б9е нaшъ[/font]…», і відразу 6-й час.
+Час 6-й. «[font=fonts/triodion_ucs]Пріиди1те, поклони1мсz[/font]…». Після трьох псалмів 6-го часу — тропар: «[font=fonts/triodion_ucs]И$же въ шестhй дeнь[/font]…» зі стихами (як на 1-му часі). Після «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]» і возгласа: «[font=fonts/triodion_ucs]Б9е, ўщeдри[/font]…» молитва прп. Єфрема Сиріна з 16 поклонами. Чтець — молитву: «[font=fonts/triodion_ucs]ВLко б9е[/font]…» (див. послідування 3-го часа; молитва: «[font=fonts/triodion_ucs]Б9е и3 гDи си1лъ[/font]…» читається на міжчассі 6-го часу).
+Міжчасся 6-го часу. «[font=fonts/triodion_ucs]Пріиди1те, поклони1мсz[/font]…» (тричі) й звичайні псалми. Після прочитання трьох псалмів чтець: «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]». Трисвяте по «[font=fonts/triodion_ucs]Џ§е нaшъ[/font]». Ієрей — возглас. Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]», тропар: «[font=fonts/triodion_ucs]Сп7си2 гDи лю1ди тво‰[/font]…», «[font=fonts/triodion_ucs]Слaва[/font]» — тропар: «[font=fonts/triodion_ucs]Болёзньми с™hхъ[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — Богородичен: «[font=fonts/triodion_ucs]Мlтвами гDи[/font]…». «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (40), «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]», «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]…», «[font=fonts/triodion_ucs]И$менемъ гDнимъ[/font]…». Ієрей — возглас: «[font=fonts/triodion_ucs]Мlтвами с™hхъ nтє1цъ[/font]…», і молитва прп. Єфрема Сиріна (з 3 поклонами). Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]». Молитва: «[font=fonts/triodion_ucs]Б9е и3 гDи си1лъ[/font]…», і відразу 9-й час.
+Час 9-й. «[font=fonts/triodion_ucs]Пріиди1те, поклони1мсz[/font]…», псалми 9-го часу, тропар: «[font=fonts/triodion_ucs]И$же въ девsтый чaсъ[/font]…» зі стихами (як на 1-му часі). Після «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]» і возгласа: «[font=fonts/triodion_ucs]Б9е, ўщeдри[/font]…» молитва прп. Єфрема Сиріна з 16 поклонами. Чтець — молитву: «[font=fonts/triodion_ucs]ВLко б9е[/font]…» (див. послідування 3-го часа; молитва: «[font=fonts/triodion_ucs]ВLко гDи, їи7се хrтE[/font]…» читається на міжчассі 9-го часу).
+Міжчасся 9-го часу. «[font=fonts/triodion_ucs]Пріиди1те, поклони1мсz[/font]…» (тричі) й звичайні псалми. Після прочитання трьох псалмів чтець: «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]». Трисвяте по «[font=fonts/triodion_ucs]Џ§е нaшъ[/font]». Ієрей — возглас. Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]», тропар: «[font=fonts/triodion_ucs]Просвэти1вый земны6z[/font]…». «[font=fonts/triodion_ucs]Слaва[/font]» — інший тропар: «[font=fonts/triodion_ucs]Ћкw разб0йникъ[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — Хрестобогородичен: «[font=fonts/triodion_ucs]Нaсъ рaди распsтаго[/font]…». «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (40), «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]», «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]…», «[font=fonts/triodion_ucs]И$менемъ гDнимъ[/font]…». Ієрей — возглас: «[font=fonts/triodion_ucs]Мlтвами с™hхъ nтє1цъ[/font]…», і молитва прп. Єфрема Сиріна (з 3 поклонами). Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]». Молитва: «[font=fonts/triodion_ucs]ВLко гDи, їи7се хrтE[/font]…», і відразу зображальні.
+Зображальні. «[font=fonts/triodion_ucs]Бlгослови2 душE моS гDа[/font]…». «[font=fonts/triodion_ucs]Слaва[/font]» — «[font=fonts/triodion_ucs]Хвали2 душE моS гDа[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — «[font=fonts/triodion_ucs]Е#динор0дный сн7е[/font]…». «[font=fonts/triodion_ucs]Во цrтвіи твоeмъ[/font]…» (без співу). Блаженні гласа Октоїха. Прокімен і алілуарій — дня. Апостол і Євангеліє — рядові. «[font=fonts/triodion_ucs]Помzни2 нaсъ, гDи[/font]…», «[font=fonts/triodion_ucs]Помzни2 нaсъ вLко[/font]…», «[font=fonts/triodion_ucs]Помzни2 нaсъ с™hй[/font]…» (просто, без співу). «[font=fonts/triodion_ucs]Ли1къ нбcный[/font]…». Стих: «[font=fonts/triodion_ucs]Приступи1те къ немY[/font]…», «[font=fonts/triodion_ucs]Ли1къ нбcный[/font]…», «[font=fonts/triodion_ucs]Слaва[/font]» — «[font=fonts/triodion_ucs]Ли1къ с™hхъ ѓгGлъ[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — «[font=fonts/triodion_ucs]Вёрую[/font]…», «[font=fonts/triodion_ucs]Њслaби, њстaви[/font]…», «[font=fonts/triodion_ucs]Џ§е нaшъ[/font]». Ієрей — возглас.
+Кондаки на зображальних:
+У храмі Господському (у понеділок, вівторок, четвер) — кондак храму, кондак дня (в четвер — два), кондак рядовому святому Мінеї (якщо є; в даному випадку — кондак священномученику), «[font=fonts/triodion_ucs]Слaва[/font]» — «[font=fonts/triodion_ucs]Со с™hми ўпок0й[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — «[font=fonts/triodion_ucs]Предстaтельство хrтіaнъ[/font]…».
+У храмі Господському (у середу і п'ятницю) — кондак дня, кондак рядовому святому Мінеї (якщо є; в даному випадку — кондак священномученику). «[font=fonts/triodion_ucs]Слaва[/font]» — «[font=fonts/triodion_ucs]Со с™hми ўпок0й[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — «[font=fonts/triodion_ucs]Предстaтельство хrтіaнъ[/font]…».
+У храмі Богородиці — кондак дня (у четвер — два), кондак рядовому святому Мінеї (якщо є; в даному випадку — кондак священномученику). «[font=fonts/triodion_ucs]Слaва[/font]» — «[font=fonts/triodion_ucs]Со с™hми ўпок0й[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — кондак храму.
+У храмі святого — кондак дня (у четвер — два), кондак храму, кондак рядовому святому Мінеї (якщо є; в даному випадку — кондак священномученику). «[font=fonts/triodion_ucs]Слaва[/font]» — «[font=fonts/triodion_ucs]Со с™hми ўпок0й[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — «[font=fonts/triodion_ucs]Предстaтельство хrтіaнъ[/font]…».
+[b]Примітка.[/b] [i]В понеділок не слід читати кондак храму святих сил безплотних, у вівторок — храму Предтечі, а в четвер — кондак храму апостольського чи свт. Миколая, тому що вони заміняються кондаками дня.[/i]
+[b]Примітка.[/b] [i]Якщо На утрені кондак рядовому святому відсутній, то на зображальних він також не читається; якщо рядовому святому два кондака, то читається один на вибір.[/i]
+«[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (40). «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]…», «[font=fonts/triodion_ucs]И$менемъ гDнимъ[/font]…». Ієрей — возглас: «[font=fonts/triodion_ucs]ББ9е, ўщeдри[/font]…» і молитва прп. Єфрема Сиріна з 16 поклонами. Трисвяте по «[font=fonts/triodion_ucs]Џ§е нaшъ[/font]», «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (12) і молитва: «[font=fonts/triodion_ucs]Всес™az трbце[/font]…». «[font=fonts/triodion_ucs]Бyди и4мz гDне[/font]…» (тричі). «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — псалом 33-й. Диякон: «[font=fonts/triodion_ucs]Премyдрость[/font]». Хор: «[font=fonts/triodion_ucs]Дост0йно є4сть[/font]…», закінчуючи словами: «…[font=fonts/triodion_ucs]м™рь бGа нaшегw[/font]». Ієрей: «[font=fonts/triodion_ucs]Прест7az бцdе сп7си2 нaсъ[/font]». Хор: «[font=fonts/triodion_ucs]ЧCтнёйшую херув‡мъ[/font]…». Ієрей: «[font=fonts/triodion_ucs]Слaва тебЁ, хrтE б9е[/font]…». Хор: «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]», «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (тричі), «[font=fonts/triodion_ucs]Бlгослови2[/font]». Відпуст. Співають многоліття.
+Літургія в цей день не звершується. Вечірня звершується у свій час.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Якщо під числом у Мінеї буде пам'ять двох святих наряду, стихири одному святому (на «[font=fonts/triodion_ucs]ГDи, воззвaхъ[/font]») співаються на вечірні, а другому — на хвалитніх, на 4 (перша стихира двічі). «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — Богородичен (в середу і п'ятницю — Хрестобогородичен) за гласом стихир наряду або Богородичен, який підходить, за гласом стихир, від менших, на розсуд уставщика. Після Богородична — «[font=fonts/triodion_ucs]Слaва тебЁ показaвшему нaмъ свётъ[/font]», «[font=fonts/triodion_ucs]Слaва въ вhшнихъ бGу[/font]…» (повсякденне славослов'я). В такому випадку після стихир «[font=fonts/triodion_ucs]ТебЁ слaва подобaетъ[/font]…» не читається, оскільки «[font=fonts/triodion_ucs]ТебЁ слaва подобaетъ[/font]…» і «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» після хвалитніх псалмів мають однакове значення за різної форми.
+</t>
+  </si>
+  <si>
+    <t>Про з'єднання Тріоді зі службами святим в 2-у, 3-ю, 4-у і 5-у суботи П'ятидесятниці</t>
+  </si>
+  <si>
+    <t>[b]I. Стихири:[/b]
+1) На «[font=fonts/triodion_ucs]ГDи, воззвaхъ[/font]»:
+а) При службі святому, який не має святкового знака, в п'ятницю ввечері стихири Тріоді (свята) — 3 і Мінеї (святому) — 3. «[font=fonts/triodion_ucs]Слaва[/font]» — Тріоді (або, якщо є, святому), «[font=fonts/triodion_ucs]И# нhнэ[/font]» — Богородичен воскресний 1-й, тобто, догматик рядового гласу.
+б) Якщо буде два святих, стихири Тріоді (свята) — 3 і стихири одному святому — 3, другому святому — вечірні стихири співаються на хвалитніх.
+в) Якщо буде великий святий, який має полієлей, стихири Тріоді (свята) — 4 і святому — 4. «[font=fonts/triodion_ucs]Слaва[/font]» — святому, «[font=fonts/triodion_ucs]И# нhнэ[/font]» — воскресний догматик рядового гласу.
+2) На стиховні незмінно (навіть в пам'ять великого святого, з полієлеєм) — стихири воскресні гласу з воскресними приспівами «[font=fonts/triodion_ucs]Господь воцарися[/font]…». «[font=fonts/triodion_ucs]Слaва[/font]» — святому, «[font=fonts/triodion_ucs]И# нhнэ[/font]» — завжди свята.
+3) На хвалитніх стихири воскресні з Тріоді — 3 і Мінеї (святому) — 3. «[font=fonts/triodion_ucs]Слaва[/font]» — святому, «[font=fonts/triodion_ucs]И# нhнэ[/font]» — свята.
+4) На стиховні утрені, якщо не має славослов'я, стихири Тріоді з приспівами їх. «[font=fonts/triodion_ucs]Слaва[/font]» — святому (якщо є), «[font=fonts/triodion_ucs]И# нhнэ[/font]» — свята.
+[b]II. Тропарі:[/b]
+1) Устав тропарів на вечірні і утренній (після Трисвятого) — той же, що і в седмичні дні. Особливість в тому, що в суботу 5-ї седмиці на «[font=fonts/triodion_ucs]И# нhнэ[/font]» співається воскресний Богородичен рядового гласу, а не за гласом тропаря святому.
+2) Устав тропарів [b]На утрені[/b] на «[font=fonts/triodion_ucs]БGъ гDь[/font]…» — той же, що і в седмичні дні. На 5-й седмиці на «[font=fonts/triodion_ucs]И# нhнэ[/font]», як і в седмичні дні, співається Богородичен 1-й за гласом тропаря святого, а Богородичен 1-й рядового гласу прочитується після сідальних після 1-ї кафізми. Якщо нема тропаря святому, то «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — Богородичен 1-й рядового гласу.
+3) Устав тропарів і кондаків На часах, а також [b]На Літургії[/b] після входу — той же, що і в седмичні дні.
+[b]III. Канони:[/b]
+1) При святому, служба якому не має святкового знака, — канон Тріоді (свята) з ірмосом на 6 (ірмоси по двічі, тропарі на 4), канон храму святого на 4 і Мінеї (святому) на 4. У храмі Господському або Богородиці — канон Тріоді (свята) з ірмосом на 8 (ірмоси по двічі, тропарі на 6) і Мінеї (святому) на 4. Канони храма Христового і Богородиці по суботам всієї П'ятидесятниці не співаються, окрім суботи перед П'ятидесятницею, яка є поминальною.
+2) При святому шестеричному — канон свята з ірмосом на 6 (ірмоси по двічі, тропарі на 4) і святому на 6. Канон храма не співається.
+3) При двох святих — канон Тріоді (свята) з ірмосом на 6 (ірмоси по двічі) та святим два канони на 8.
+Після 3-ї пісні — кондак і сідален святому. «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — сідален Тріоді (свята).
+Після 6-ї пісні — кондак та ікос свята.
+4) При великому святому, якому є полієлей, — канон свята з ірмосом на 6 (ірмоси по двічі, тропарі на 4) і святому на 8.
+Після 3-ї пісні — кондак та ікос свята, сідален святому (двічі). «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — сідален Тріоді (свята).
+Після 6-ї пісні — кондак та ікос святому.
+Окрім того, як в седмичні, так і в суботні дні після читання звичайних кафізм виголошуються малі єктенії, заради післясвята. На 9-й пісні співаємо «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]». Після 9-ї пісні «[font=fonts/triodion_ucs]Дост0йно є4сть[/font]» не співається. Після хвалитніх стихир не читається «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — «[font=fonts/triodion_ucs]ТебЁ слaва подобaетъ[/font]…» (тому що на «[font=fonts/triodion_ucs]Слaва[/font]» і на «[font=fonts/triodion_ucs]И# нhнэ[/font]» були проспівані стихири), а одразу: «[font=fonts/triodion_ucs]Слaва тебЁ показaвшему нaмъ свётъ[/font]»."</t>
   </si>
   <si>
     <t>Загальні особливості богослужінь від Фоминої Неділі до віддання Пасхи</t>
@@ -1135,106 +1308,6 @@
 Після 3-ї пісні — кондак та ікос свята, сідален святому (двічі). «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — сідален Тріоді (свята).
 Після 6-ї пісні — кондак та ікос святому.
 Окрім того, як в седмичні, так і в суботні дні після читання звичайних кафізм виголошуються малі єктенії, заради післясвята. На 9-й пісні співаємо «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]». Після 9-ї пісні «[font=fonts/triodion_ucs]Дост0йно є4сть[/font]» не співається. Після хвалитніх стихир не читається «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — «[font=fonts/triodion_ucs]ТебЁ слaва подобaетъ[/font]…» (тому що на «[font=fonts/triodion_ucs]Слaва[/font]» і на «[font=fonts/triodion_ucs]И# нhнэ[/font]» були проспівані стихири), а одразу: «[font=fonts/triodion_ucs]Слaва тебЁ показaвшему нaмъ свётъ[/font]»."</t>
-  </si>
-  <si>
-    <t>Про з'єднання Тріоді зі службами святим в 2-у, 3-ю, 4-у і 5-у суботи П'ятидесятниці</t>
-  </si>
-  <si>
-    <t>[b]I. Стихири:[/b]
-1) На «[font=fonts/triodion_ucs]ГDи, воззвaхъ[/font]»:
-а) При службі святому, який не має святкового знака, в п'ятницю ввечері стихири Тріоді (свята) — 3 і Мінеї (святому) — 3. «[font=fonts/triodion_ucs]Слaва[/font]» — Тріоді (або, якщо є, святому), «[font=fonts/triodion_ucs]И# нhнэ[/font]» — Богородичен воскресний 1-й, тобто, догматик рядового гласу.
-б) Якщо буде два святих, стихири Тріоді (свята) — 3 і стихири одному святому — 3, другому святому — вечірні стихири співаються на хвалитніх.
-в) Якщо буде великий святий, який має полієлей, стихири Тріоді (свята) — 4 і святому — 4. «[font=fonts/triodion_ucs]Слaва[/font]» — святому, «[font=fonts/triodion_ucs]И# нhнэ[/font]» — воскресний догматик рядового гласу.
-2) На стиховні незмінно (навіть в пам'ять великого святого, з полієлеєм) — стихири воскресні гласу з воскресними приспівами «[font=fonts/triodion_ucs]Господь воцарися[/font]…». «[font=fonts/triodion_ucs]Слaва[/font]» — святому, «[font=fonts/triodion_ucs]И# нhнэ[/font]» — завжди свята.
-3) На хвалитніх стихири воскресні з Тріоді — 3 і Мінеї (святому) — 3. «[font=fonts/triodion_ucs]Слaва[/font]» — святому, «[font=fonts/triodion_ucs]И# нhнэ[/font]» — свята.
-4) На стиховні утрені, якщо не має славослов'я, стихири Тріоді з приспівами їх. «[font=fonts/triodion_ucs]Слaва[/font]» — святому (якщо є), «[font=fonts/triodion_ucs]И# нhнэ[/font]» — свята.
-[b]II. Тропарі:[/b]
-1) Устав тропарів на вечірні і утренній (після Трисвятого) — той же, що і в седмичні дні. Особливість в тому, що в суботу 5-ї седмиці на «[font=fonts/triodion_ucs]И# нhнэ[/font]» співається воскресний Богородичен рядового гласу, а не за гласом тропаря святому.
-2) Устав тропарів [b]На утрені[/b] на «[font=fonts/triodion_ucs]БGъ гDь[/font]…» — той же, що і в седмичні дні. На 5-й седмиці на «[font=fonts/triodion_ucs]И# нhнэ[/font]», як і в седмичні дні, співається Богородичен 1-й за гласом тропаря святого, а Богородичен 1-й рядового гласу прочитується після сідальних після 1-ї кафізми. Якщо нема тропаря святому, то «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — Богородичен 1-й рядового гласу.
-3) Устав тропарів і кондаків На часах, а також [b]На Літургії[/b] після входу — той же, що і в седмичні дні.
-[b]III. Канони:[/b]
-1) При святому, служба якому не має святкового знака, — канон Тріоді (свята) з ірмосом на 6 (ірмоси по двічі, тропарі на 4), канон храму святого на 4 і Мінеї (святому) на 4. У храмі Господському або Богородиці — канон Тріоді (свята) з ірмосом на 8 (ірмоси по двічі, тропарі на 6) і Мінеї (святому) на 4. Канони храма Христового і Богородиці по суботам всієї П'ятидесятниці не співаються, окрім суботи перед П'ятидесятницею, яка є поминальною.
-2) При святому шестеричному — канон свята з ірмосом на 6 (ірмоси по двічі, тропарі на 4) і святому на 6. Канон храма не співається.
-3) При двох святих — канон Тріоді (свята) з ірмосом на 6 (ірмоси по двічі) та святим два канони на 8.
-Після 3-ї пісні — кондак і сідален святому. «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — сідален Тріоді (свята).
-Після 6-ї пісні — кондак та ікос свята.
-4) При великому святому, якому є полієлей, — канон свята з ірмосом на 6 (ірмоси по двічі, тропарі на 4) і святому на 8.
-Після 3-ї пісні — кондак та ікос свята, сідален святому (двічі). «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — сідален Тріоді (свята).
-Після 6-ї пісні — кондак та ікос святому.
-Окрім того, як в седмичні, так і в суботні дні після читання звичайних кафізм виголошуються малі єктенії, заради післясвята. На 9-й пісні співаємо «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]». Після 9-ї пісні «[font=fonts/triodion_ucs]Дост0йно є4сть[/font]» не співається. Після хвалитніх стихир не читається «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — «[font=fonts/triodion_ucs]ТебЁ слaва подобaетъ[/font]…» (тому що на «[font=fonts/triodion_ucs]Слaва[/font]» і на «[font=fonts/triodion_ucs]И# нhнэ[/font]» були проспівані стихири), а одразу: «[font=fonts/triodion_ucs]Слaва тебЁ показaвшему нaмъ свётъ[/font]»."</t>
-  </si>
-  <si>
-    <t>Зразок звершення алілуйної служби</t>
-  </si>
-  <si>
-    <t>[b]Б. На вечірні[/b] кафізма 9-а.
-«[font=fonts/triodion_ucs]ГDи, воззвaхъ[/font]» співається за гласом Богородичних стихир Мінеї.
-На «[font=fonts/triodion_ucs]ГDи, воззвaхъ[/font]» — стихири на 6: [ref=world][color=0000ff] Богородиці [/color][/ref], глас 4-й — 3, і священномученику, глас той же — 3. «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — Хрестобогородичен Мінеї, глас той же.</t>
-  </si>
-  <si>
-    <t>Спів Богородичних стихир Мінеї є невід'ємною приналежністю алілуйних служб періода малих постів. Якщо Богородичні стихири в рядовій службі Мінеї відсутні, вони беруться (як правило, по гласу стихир рядового святого) з інших служб Мінеї (пор.: Мінея, 22 травня). При звершенні алілуйної служби двом малим святим, у кожного з яких є свої стихири на «[font=fonts/triodion_ucs]ГDи, воззвaхъ[/font]», допустимі наступні варіанти: 1) спів на «[font=fonts/triodion_ucs]ГDи, воззвaхъ[/font]» стихир обох святих на 6 (при цьому Богородичні стихири не співаються); 2) спів на «[font=fonts/triodion_ucs]ГDи, воззвaхъ[/font]» стихир Богородиці (взятих з іншої служби Мінеї) на 3 і стихир першого святого на 3 (стихири другого святого в такому випадку переносяться на хвалитні утрені та співаються на 4, з повторенням першої стихири).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Входу немає. «[font=fonts/triodion_ucs]Свёте ти1хій[/font]». В неділю вечора співається прокімен дня (на інших алілуйних вечірнях співається «[font=fonts/triodion_ucs]Ґллилyіа[/font]», на глас 6-й, зі стихами з Часослова; напередодні першого дня Різдв'яного посту — прокімен дня). «[font=fonts/triodion_ucs]Спод0би, гDи[/font]» і єктенія просительна.
-На стиховні стихири Октоїха рядового гласу (в даному випадку 8-го). «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — Хрестобогородичен Октоїха, глас той же.
-Після Трисвятого — тропарі, глас 4-й; «[font=fonts/triodion_ucs]Бцdе дв7о[/font]…» ([ref=world][color=0000ff] поклон [/color][/ref]). «[font=fonts/triodion_ucs]Слaва[/font]» — «[font=fonts/triodion_ucs]Кrти1телю хrт0въ[/font]…» (поклон), «[font=fonts/triodion_ucs]И# нhнэ[/font]» — «[font=fonts/triodion_ucs]Моли1те за ны2[/font]…» (поклон), «[font=fonts/triodion_ucs]Под8 твоE бlгоутр0біе[/font]…» (без поклону). Чтець: «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (40), «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]», «[font=fonts/triodion_ucs]ЧCтнёйшую херув‡мъ[/font]…», «[font=fonts/triodion_ucs]И$менемъ гDнимъ бlгослови2, џтче[/font]». Ієрей: «[font=fonts/triodion_ucs]Сhй бlгословeнъ[/font]…». Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]». «[font=fonts/triodion_ucs]Нбcный цRю2[/font]…».
-Ієрей — молитву прп. Єфрема Сиріна (в Неділю ввечері з 3-ма великими поклонами, в інші дні — 16): «[font=fonts/triodion_ucs]ГDи и3 вLко[/font]…» (з розділенням на три частини та із трьома великими поклонами після кожної), потім 12 малих поклонів з молитвою: «[font=fonts/triodion_ucs]Б9е, њчи1сти мS грёшнаго[/font]» і знову один великий поклон в кінці молитви: «[font=fonts/triodion_ucs]ГDи и3 вLко[/font]…» (без розділення на частини).
-Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]», Трисвяте по «[font=fonts/triodion_ucs]Џ§е нaшъ[/font]» (Кінцеве Трисвяте не читається тільки в Неділю вечора). Ієрей — возглас. Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]», «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (12). Ієрей: «[font=fonts/triodion_ucs]Слaва тебЁ хrтE б9е[/font]…». Хор: «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]», «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (тричі), «[font=fonts/triodion_ucs]Бlгослови2[/font]». Ієрей виголошує відпуст.
-У всі седмичні дні ввечері служиться мале повечір'я. Порядок читання тропарів і кондаків наступний:
-У понеділок, вівторок та четвер:
-У храмі Господському і Богородиці — тропар храму, тропар дня (у четвер — два), тропарі малого повечір'я: «[font=fonts/triodion_ucs]Б9е nтє1цъ нaшихъ[/font]…», «[font=fonts/triodion_ucs]И%же во всeмъ мjрэ[/font]…». «[font=fonts/triodion_ucs]Слaва[/font]» — «[font=fonts/triodion_ucs]Со с™hми ўпок0й[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — «[font=fonts/triodion_ucs]Мlтвами, гDи, всёхъ с™hхъ[/font]…».
-У храмі святого — тропар дня (у четвер — два), тропар храму, тропарі малого повечір'я (див. вище).
-В середу і п'ятницю:
-У храмі Господському — тропар дня, тропарі малого повечір'я: «[font=fonts/triodion_ucs]Б9е nтє1цъ нaшихъ[/font]…», «[font=fonts/triodion_ucs]И%же во всeмъ мjрэ[/font]…». «[font=fonts/triodion_ucs]Слaва[/font]» — «[font=fonts/triodion_ucs]Со с™hми ўпок0й[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — «[font=fonts/triodion_ucs]Мlтвами, гDи, всёхъ с™hхъ[/font]…».
-У храмі Богородиці і святого — тропар дня, тропар храму, тропарі малого повечір'я (див. вище).
-[b]Примітка.[/b] [i]В понеділок не слід читати тропар храму святих сил безплотних, у вівторок — храму Предтечі, а в четвер — тропар храму апостольського чи свт. Миколая, тому що вони заміняються тропарями дня.[/i]
-Після возгласу: «[font=fonts/triodion_ucs]Б9е, ўщeдри[/font]…» молитва: «[font=fonts/triodion_ucs]ГDи и3 вLко[/font]…» (з 16-ма поклонами). Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]», Трисвяте по «[font=fonts/triodion_ucs]Џ§е нaшъ[/font]». Ієрей — возглас. Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]», «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (12). І молитви: «[font=fonts/triodion_ucs]Несквeрнаz, неблaзнаz[/font]…», «[font=fonts/triodion_ucs]И# дaждь нaмъ вLко[/font]…», та інші. Ієрей: «[font=fonts/triodion_ucs]Слaва тебЁ хrтE б9е[/font]…». Хор: «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]», «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (тричі), «[font=fonts/triodion_ucs]Бlгослови2[/font]». Ієрей читає молитву відпусту: «[font=fonts/triodion_ucs]ВLко многомлcтиве[/font]…». (як у Великий піст).
-Після молитви, ієрей звершує поклон, кажучи: «[font=fonts/triodion_ucs]Бlгослови1те nтцы2 с™jи[/font]…». Ті, хто моляться, відповідають: «[font=fonts/triodion_ucs]БGъ прости1тъ ти2 џтче с™hй[/font]» (або «[font=fonts/triodion_ucs]БGъ прости1тъ ти2 џтче с™hй, помоли1сz њ нaсъ грёшныхъ[/font]»). Ієрей, звернувшись до вівтаря, виголошує прохання єктенії: «[font=fonts/triodion_ucs]Пом0лимсz њ господи1нэ[/font]…», та ін. Хор: «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (тихо, на одній висоті, кілька разів). Ієрей: «[font=fonts/triodion_ucs]Рцeмъ и3 њ себЁ самёхъ[/font]», хор: «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (тричі). Ієрей: «[font=fonts/triodion_ucs]Мlтвами с™hхъ nтє1цъ нaшихъ[/font]…». Хор: «[font=fonts/triodion_ucs]Ґми1нь[/font]».
-Звершується повсякденна полуношниця з молитвою прп. Єфрема Сиріна: «[font=fonts/triodion_ucs]ГDи и3 вLко[/font]…» (16 поклонів).
-На утрені, після початкового возгласу «[font=fonts/triodion_ucs]Бlгословeнъ бGъ нaшъ[/font]…», Трисвяте по «[font=fonts/triodion_ucs]Џ§е нaшъ[/font]», «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (12). «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]», «[font=fonts/triodion_ucs]Пріиди1те, поклони1мсz[/font]…» і псалми 19-й і 20-й (кадіння всього храму). Шестипсалміє, велика єктенія, і співаємо «[font=fonts/triodion_ucs]Ґллилyіа[/font]» на глас Октоїха, і Троїчні гласу (як у Великий піст).
-</t>
-  </si>
-  <si>
-    <t>Відповідно до церковної практики земні поклони ієрей здійснює на амвоні перед Царськими вратами.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кафізми 10-а і 11-а. Після кафізм єктеній немає, а одразу сідальні Октоїха з мученичним і Хрестобогородичними їх (якщо служба святому не має кондака, мученичен читається після 6-ї пісні канону).
-50-й псалом.
-Канони: Октоїха 1-й з ірмосом (ірмос один раз) на 6, 2-й на 4, і священномученику на 4.
-Біблійні пісні: «[font=fonts/triodion_ucs]ГDеви поeмъ[/font]…».
-Катавасія після 3-ї, 6-ї, 8-ї і 9-ї пісень — ірмоси канону Мінеї.
-Після 3-ї пісні — сідален священномученику, глас 4-й. «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — Хрестобогородичен Мінеї, глас той же.
-Після 6-ї пісні — кондак священномученику, глас 4-й.
-[b]Примітка.[/b] [i]Якщо в службі Мінеї у святого є кондак, то він читається після 6-ї пісні канону, а якщо кондака немає, то на його місці після 6-ї пісні канона читається мученичен Октоїха (із сідальнів після 2-го стихослов'ї).[/i]
-На 9-й пісні співаємо «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]».
-Після 9-ї пісні — «[font=fonts/triodion_ucs]Дост0йно є4сть[/font]». Єктенія мала. Світилен Троїчен рядового гласу (в даному випадку 8-го)
-Після світильна чтець — хвалитні псалми: «[font=fonts/triodion_ucs]Хвали1те гDа съ нб7съ[/font]…» та інші стихи як [ref=world][color=0000ff] зазвичай [/color][/ref]. «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]», «[font=fonts/triodion_ucs]ТебЁ слaва подобaетъ[/font]…», «[font=fonts/triodion_ucs]Слaва тебЁ показaвшему нaмъ свётъ[/font]». Читається повсякденне славослов'я. Просительна єктенія і молитва головопреклоніння.
-Стихири на стиховні Октоїха рядового гласу (в даному випадку 8-го). «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — Хрестобогородичен Октоїха, глас той же.
-Чтець: «[font=fonts/triodion_ucs]Бlго є4сть[/font]…» (один раз). Трисвяте по «[font=fonts/triodion_ucs]Џ§е нaшъ[/font]». Після возгласу чтець — тропар: «[font=fonts/triodion_ucs]Въ хрaмэ стоsще[/font]…», «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (40). «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]…». «[font=fonts/triodion_ucs]И$менемъ гDнимъ[/font]…». Ієрей перед Царськими вратами: «[font=fonts/triodion_ucs]Сhй бlгословeнъ[/font]…». Чтець: «[font=fonts/triodion_ucs]Нбcный цRю2[/font]…». Ієрей — молитву прп. Єфрема Сиріна (з 16 поклонами). Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]», і без відпусту утрені читає 1-й час.
-До часів, за Уставом, приєднуються міжчасся (на відміну від Великого посту, де замість них читаються кафізми).
-Час 1-й. На часах стихослов'я кафізми немає. Після прочитання звичайних псалмів ієрей або чтець читає тропар: «[font=fonts/triodion_ucs]Заyтра ўслhши глaсъ м0й[/font]…». Чтець (а не хор) повторює цей тропар просто, без співу, ієрей — стих: «[font=fonts/triodion_ucs]Глаг0лы мо‰ внуши2[/font]…», чтець: «[font=fonts/triodion_ucs]Заyтра ўслhши[/font]…»; ієрей — стих: «[font=fonts/triodion_ucs]Ћкw къ тебЁ[/font]…»; чтець: «[font=fonts/triodion_ucs]Заyтра ўслhши[/font]…»; ієрей: «[font=fonts/triodion_ucs]Слaва[/font]»; чтець: «[font=fonts/triodion_ucs]И# нhнэ[/font]» — «[font=fonts/triodion_ucs]Чт0 тz наречeмъ[/font]…», «[font=fonts/triodion_ucs]Стwпы2 мо‰ напрaви[/font]…», «[font=fonts/triodion_ucs]Да и3сп0лнzтсz ўстA[/font]…» (читаються без повторів), Трисвяте по «[font=fonts/triodion_ucs]Џ§е нaшъ[/font]». Ієрей — возглас. Чтець — Богородичен дня (в понеділок, вівторок і четвер — «[font=fonts/triodion_ucs]Преслaвную б9ію м™рь[/font]…»; в середу і п'ятницю — «[font=fonts/triodion_ucs]Ск0рw предвари[/font]…») Після: «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]» і возгласа «[font=fonts/triodion_ucs]Б9е, ўщeдри[/font]…» молитва прп. Єфрема Сиріна (16 поклонів). Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]», Трисвяте по «[font=fonts/triodion_ucs]Џ§е нaшъ[/font]». Ієрей — возглас. Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]», «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (12). І молитва: «[font=fonts/triodion_ucs]ХrтE свёте и4стинный[/font]…». Й одразу міжчасся 1-го часу.
-Міжчасся 1-го часу (див. Слідуваний Псалтир): «[font=fonts/triodion_ucs]Пріиди1те, поклони1мсz[/font]…» (тричі) й звичайні псалми. Після прочитання трьох псалмів чтець: «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]». Трисвяте по «[font=fonts/triodion_ucs]Џ§е нaшъ[/font]». Ієрей — возглас. Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]», тропар: «[font=fonts/triodion_ucs]Поми1луй нaсъ гDи[/font]…», «[font=fonts/triodion_ucs]Слaва[/font]» — інший тропар: «[font=fonts/triodion_ucs]ГDи, поми1луй нaсъ[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — Богородичен: «[font=fonts/triodion_ucs]Млcрдіz двє1ри[/font]…». «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (40), «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]», «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]…», «[font=fonts/triodion_ucs]И$менемъ гDнимъ[/font]…». Ієрей — возглас: «[font=fonts/triodion_ucs]Мlтвами с™hхъ nтє1цъ[/font]…», і молитва прп. Єфрема Сиріна (з 3 поклонами). Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]». Дві молитви: «[font=fonts/triodion_ucs]Б9е вёчный, безначaльный[/font]…», «[font=fonts/triodion_ucs]Посылazй свётъ[/font]…». Ієрей: «[font=fonts/triodion_ucs]Слaва тебЁ, хrтE б9е[/font]…». Хор: «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]», «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (тричі); «[font=fonts/triodion_ucs]Бlгослови2[/font]». Ієрей читає відпуст. Співається многоліття. Співається стихира храму, і під час співу стихири відбувається вихід в притвор для заупокійної літії.
-Час 3-й. Ієрей: «[font=fonts/triodion_ucs]Бlгословeнъ бGъ нaшъ[/font]…». Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]». «[font=fonts/triodion_ucs]Слaва тебЁ б9е нaшъ[/font]…» та інше послідування 3-го часа, як зазвичай. Після трьох псалмів тропар: «[font=fonts/triodion_ucs]ГDи, и4же прес™aго твоего2 д¦а[/font]…» зі стихами (так, як на 1-му часі). Після «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]» і возгласа: «[font=fonts/triodion_ucs]Б9е, ўщeдри[/font]…» молитва прп. Єфрема Сиріна з 16 поклонами. Чтець — молитву: «[font=fonts/triodion_ucs]ВLко б9е[/font]…».
-Міжчасся 3-го часу. «[font=fonts/triodion_ucs]Пріиди1те, поклони1мсz[/font]…» (тричі) й звичайні псалми. Після прочитання трьох псалмів чтець: «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]». Трисвяте по «[font=fonts/triodion_ucs]Џ§е нaшъ[/font]». Ієрей — возглас. Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]», тропар: «[font=fonts/triodion_ucs]Б9е nтє1цъ нaшихъ[/font]…», «[font=fonts/triodion_ucs]Слaва[/font]» — інший тропар: «[font=fonts/triodion_ucs]М§ницы твои2, гDи[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — Богородичен: «[font=fonts/triodion_ucs]СтэнA неwбори1маz[/font]…». «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (40), «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]», «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]…», «[font=fonts/triodion_ucs]И$менемъ гDнимъ[/font]…». Ієрей — возглас: «[font=fonts/triodion_ucs]Мlтвами с™hхъ nтє1цъ[/font]…», і молитва прп. Єфрема Сиріна (з 3 поклонами). Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]». Молитва: «[font=fonts/triodion_ucs]ГDи б9е нaшъ[/font]…», і відразу 6-й час.
-Час 6-й. «[font=fonts/triodion_ucs]Пріиди1те, поклони1мсz[/font]…». Після трьох псалмів 6-го часу — тропар: «[font=fonts/triodion_ucs]И$же въ шестhй дeнь[/font]…» зі стихами (як на 1-му часі). Після «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]» і возгласа: «[font=fonts/triodion_ucs]Б9е, ўщeдри[/font]…» молитва прп. Єфрема Сиріна з 16 поклонами. Чтець — молитву: «[font=fonts/triodion_ucs]ВLко б9е[/font]…» (див. послідування 3-го часа; молитва: «[font=fonts/triodion_ucs]Б9е и3 гDи си1лъ[/font]…» читається на міжчассі 6-го часу).
-Міжчасся 6-го часу. «[font=fonts/triodion_ucs]Пріиди1те, поклони1мсz[/font]…» (тричі) й звичайні псалми. Після прочитання трьох псалмів чтець: «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]». Трисвяте по «[font=fonts/triodion_ucs]Џ§е нaшъ[/font]». Ієрей — возглас. Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]», тропар: «[font=fonts/triodion_ucs]Сп7си2 гDи лю1ди тво‰[/font]…», «[font=fonts/triodion_ucs]Слaва[/font]» — тропар: «[font=fonts/triodion_ucs]Болёзньми с™hхъ[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — Богородичен: «[font=fonts/triodion_ucs]Мlтвами гDи[/font]…». «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (40), «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]», «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]…», «[font=fonts/triodion_ucs]И$менемъ гDнимъ[/font]…». Ієрей — возглас: «[font=fonts/triodion_ucs]Мlтвами с™hхъ nтє1цъ[/font]…», і молитва прп. Єфрема Сиріна (з 3 поклонами). Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]». Молитва: «[font=fonts/triodion_ucs]Б9е и3 гDи си1лъ[/font]…», і відразу 9-й час.
-Час 9-й. «[font=fonts/triodion_ucs]Пріиди1те, поклони1мсz[/font]…», псалми 9-го часу, тропар: «[font=fonts/triodion_ucs]И$же въ девsтый чaсъ[/font]…» зі стихами (як на 1-му часі). Після «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]» і возгласа: «[font=fonts/triodion_ucs]Б9е, ўщeдри[/font]…» молитва прп. Єфрема Сиріна з 16 поклонами. Чтець — молитву: «[font=fonts/triodion_ucs]ВLко б9е[/font]…» (див. послідування 3-го часа; молитва: «[font=fonts/triodion_ucs]ВLко гDи, їи7се хrтE[/font]…» читається на міжчассі 9-го часу).
-Міжчасся 9-го часу. «[font=fonts/triodion_ucs]Пріиди1те, поклони1мсz[/font]…» (тричі) й звичайні псалми. Після прочитання трьох псалмів чтець: «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]». Трисвяте по «[font=fonts/triodion_ucs]Џ§е нaшъ[/font]». Ієрей — возглас. Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]», тропар: «[font=fonts/triodion_ucs]Просвэти1вый земны6z[/font]…». «[font=fonts/triodion_ucs]Слaва[/font]» — інший тропар: «[font=fonts/triodion_ucs]Ћкw разб0йникъ[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — Хрестобогородичен: «[font=fonts/triodion_ucs]Нaсъ рaди распsтаго[/font]…». «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (40), «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]», «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]…», «[font=fonts/triodion_ucs]И$менемъ гDнимъ[/font]…». Ієрей — возглас: «[font=fonts/triodion_ucs]Мlтвами с™hхъ nтє1цъ[/font]…», і молитва прп. Єфрема Сиріна (з 3 поклонами). Чтець: «[font=fonts/triodion_ucs]Ґми1нь[/font]». Молитва: «[font=fonts/triodion_ucs]ВLко гDи, їи7се хrтE[/font]…», і відразу зображальні.
-Зображальні. «[font=fonts/triodion_ucs]Бlгослови2 душE моS гDа[/font]…». «[font=fonts/triodion_ucs]Слaва[/font]» — «[font=fonts/triodion_ucs]Хвали2 душE моS гDа[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — «[font=fonts/triodion_ucs]Е#динор0дный сн7е[/font]…». «[font=fonts/triodion_ucs]Во цrтвіи твоeмъ[/font]…» (без співу). Блаженні гласа Октоїха. Прокімен і алілуарій — дня. Апостол і Євангеліє — рядові. «[font=fonts/triodion_ucs]Помzни2 нaсъ, гDи[/font]…», «[font=fonts/triodion_ucs]Помzни2 нaсъ вLко[/font]…», «[font=fonts/triodion_ucs]Помzни2 нaсъ с™hй[/font]…» (просто, без співу). «[font=fonts/triodion_ucs]Ли1къ нбcный[/font]…». Стих: «[font=fonts/triodion_ucs]Приступи1те къ немY[/font]…», «[font=fonts/triodion_ucs]Ли1къ нбcный[/font]…», «[font=fonts/triodion_ucs]Слaва[/font]» — «[font=fonts/triodion_ucs]Ли1къ с™hхъ ѓгGлъ[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — «[font=fonts/triodion_ucs]Вёрую[/font]…», «[font=fonts/triodion_ucs]Њслaби, њстaви[/font]…», «[font=fonts/triodion_ucs]Џ§е нaшъ[/font]». Ієрей — возглас.
-Кондаки на зображальних:
-У храмі Господському (у понеділок, вівторок, четвер) — кондак храму, кондак дня (в четвер — два), кондак рядовому святому Мінеї (якщо є; в даному випадку — кондак священномученику), «[font=fonts/triodion_ucs]Слaва[/font]» — «[font=fonts/triodion_ucs]Со с™hми ўпок0й[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — «[font=fonts/triodion_ucs]Предстaтельство хrтіaнъ[/font]…».
-У храмі Господському (у середу і п'ятницю) — кондак дня, кондак рядовому святому Мінеї (якщо є; в даному випадку — кондак священномученику). «[font=fonts/triodion_ucs]Слaва[/font]» — «[font=fonts/triodion_ucs]Со с™hми ўпок0й[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — «[font=fonts/triodion_ucs]Предстaтельство хrтіaнъ[/font]…».
-У храмі Богородиці — кондак дня (у четвер — два), кондак рядовому святому Мінеї (якщо є; в даному випадку — кондак священномученику). «[font=fonts/triodion_ucs]Слaва[/font]» — «[font=fonts/triodion_ucs]Со с™hми ўпок0й[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — кондак храму.
-У храмі святого — кондак дня (у четвер — два), кондак храму, кондак рядовому святому Мінеї (якщо є; в даному випадку — кондак священномученику). «[font=fonts/triodion_ucs]Слaва[/font]» — «[font=fonts/triodion_ucs]Со с™hми ўпок0й[/font]…», «[font=fonts/triodion_ucs]И# нhнэ[/font]» — «[font=fonts/triodion_ucs]Предстaтельство хrтіaнъ[/font]…».
-[b]Примітка.[/b] [i]В понеділок не слід читати кондак храму святих сил безплотних, у вівторок — храму Предтечі, а в четвер — кондак храму апостольського чи свт. Миколая, тому що вони заміняються кондаками дня.[/i]
-[b]Примітка.[/b] [i]Якщо На утрені кондак рядовому святому відсутній, то на зображальних він також не читається; якщо рядовому святому два кондака, то читається один на вибір.[/i]
-«[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (40). «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — «[font=fonts/triodion_ucs]ЧCтнёйшую[/font]…», «[font=fonts/triodion_ucs]И$менемъ гDнимъ[/font]…». Ієрей — возглас: «[font=fonts/triodion_ucs]ББ9е, ўщeдри[/font]…» і молитва прп. Єфрема Сиріна з 16 поклонами. Трисвяте по «[font=fonts/triodion_ucs]Џ§е нaшъ[/font]», «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (12) і молитва: «[font=fonts/triodion_ucs]Всес™az трbце[/font]…». «[font=fonts/triodion_ucs]Бyди и4мz гDне[/font]…» (тричі). «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — псалом 33-й. Диякон: «[font=fonts/triodion_ucs]Премyдрость[/font]». Хор: «[font=fonts/triodion_ucs]Дост0йно є4сть[/font]…», закінчуючи словами: «…[font=fonts/triodion_ucs]м™рь бGа нaшегw[/font]». Ієрей: «[font=fonts/triodion_ucs]Прест7az бцdе сп7си2 нaсъ[/font]». Хор: «[font=fonts/triodion_ucs]ЧCтнёйшую херув‡мъ[/font]…». Ієрей: «[font=fonts/triodion_ucs]Слaва тебЁ, хrтE б9е[/font]…». Хор: «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]», «[font=fonts/triodion_ucs]ГDи, поми1луй[/font]» (тричі), «[font=fonts/triodion_ucs]Бlгослови2[/font]». Відпуст. Співають многоліття.
-Літургія в цей день не звершується. Вечірня звершується у свій час.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Якщо під числом у Мінеї буде пам'ять двох святих наряду, стихири одному святому (на «[font=fonts/triodion_ucs]ГDи, воззвaхъ[/font]») співаються на вечірні, а другому — на хвалитніх, на 4 (перша стихира двічі). «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» — Богородичен (в середу і п'ятницю — Хрестобогородичен) за гласом стихир наряду або Богородичен, який підходить, за гласом стихир, від менших, на розсуд уставщика. Після Богородична — «[font=fonts/triodion_ucs]Слaва тебЁ показaвшему нaмъ свётъ[/font]», «[font=fonts/triodion_ucs]Слaва въ вhшнихъ бGу[/font]…» (повсякденне славослов'я). В такому випадку після стихир «[font=fonts/triodion_ucs]ТебЁ слaва подобaетъ[/font]…» не читається, оскільки «[font=fonts/triodion_ucs]ТебЁ слaва подобaетъ[/font]…» і «[font=fonts/triodion_ucs]Слaва, и3 нhнэ[/font]» після хвалитніх псалмів мають однакове значення за різної форми.
-</t>
   </si>
   <si>
     <t>Чин Воздвиження Хреста</t>
@@ -2144,48 +2217,47 @@
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="15" t="s">
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="B13" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="C13" s="6"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="I14" s="15" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2193,100 +2265,101 @@
       <c r="A15" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="14" t="s">
         <v>176</v>
       </c>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="20" t="s">
         <v>178</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="G18" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="E18" s="6"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>193</v>
       </c>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="5" t="s">
         <v>195</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="F22" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="B22" s="15" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2297,6 +2370,25 @@
       <c r="B23" s="15" t="s">
         <v>204</v>
       </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="17"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
